--- a/teaching/traditional_assets/database/data/egypt/egypt_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/egypt/egypt_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,16 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0207</v>
+        <v>0.11075</v>
       </c>
       <c r="E2">
-        <v>-0.1059</v>
+        <v>0.145</v>
+      </c>
+      <c r="F2">
+        <v>0.06</v>
       </c>
       <c r="G2">
-        <v>5.270280886083376e-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -609,97 +612,94 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>154.176</v>
+        <v>122.39</v>
       </c>
       <c r="L2">
-        <v>0.1533114765835454</v>
+        <v>0.1840844210342659</v>
       </c>
       <c r="M2">
-        <v>46.006</v>
+        <v>27.176</v>
       </c>
       <c r="N2">
-        <v>0.03949589210442726</v>
+        <v>0.02457920680142903</v>
       </c>
       <c r="O2">
-        <v>0.2983992320464923</v>
+        <v>0.2220442846637798</v>
       </c>
       <c r="P2">
-        <v>46.006</v>
+        <v>12.176</v>
       </c>
       <c r="Q2">
-        <v>0.03949589210442726</v>
+        <v>0.01101252656808212</v>
       </c>
       <c r="R2">
-        <v>0.2983992320464923</v>
+        <v>0.09948525206307707</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.5519576096555784</v>
       </c>
       <c r="U2">
-        <v>593.321</v>
+        <v>649.029</v>
       </c>
       <c r="V2">
-        <v>0.5093627396272418</v>
+        <v>0.5870112603445937</v>
       </c>
       <c r="W2">
-        <v>0.08408211097358649</v>
+        <v>0.06</v>
       </c>
       <c r="X2">
-        <v>0.08273465981378211</v>
+        <v>0.05201479910052967</v>
       </c>
       <c r="Y2">
-        <v>0.001347451159804378</v>
+        <v>0.007985200899470329</v>
       </c>
       <c r="Z2">
-        <v>0.7911309602947274</v>
+        <v>0.4280828224216505</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.07480628484220403</v>
+        <v>0.05222874525254297</v>
       </c>
       <c r="AC2">
-        <v>-0.07480628484220403</v>
+        <v>-0.05222874525254297</v>
       </c>
       <c r="AD2">
-        <v>1024.275</v>
+        <v>1018.407</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1024.275</v>
+        <v>1018.407</v>
       </c>
       <c r="AG2">
-        <v>430.9540000000001</v>
+        <v>369.378</v>
       </c>
       <c r="AH2">
-        <v>0.4678966975087993</v>
+        <v>0.4794631217523824</v>
       </c>
       <c r="AI2">
-        <v>0.4064184978694548</v>
+        <v>0.3962036450951656</v>
       </c>
       <c r="AJ2">
-        <v>0.2700578524411825</v>
+        <v>0.2504210089571182</v>
       </c>
       <c r="AK2">
-        <v>0.2236484431680304</v>
+        <v>0.1922457978207376</v>
       </c>
       <c r="AL2">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>11.77</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
+        <v>-8.077999999999999</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexandria National Company For Financial Investment SAE (CASE:ANFI)</t>
+          <t>El Kahera El Watania Investment (CASE:KWIN)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -718,6 +718,9 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.366</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -731,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>-0.032</v>
+        <v>-1.36</v>
       </c>
       <c r="L3">
-        <v>-0.9696969696969697</v>
+        <v>-11.62393162393162</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -758,31 +761,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.081</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="V3">
-        <v>0.06694214876033058</v>
+        <v>0.01448979591836734</v>
       </c>
       <c r="W3">
-        <v>-0.03955500618046971</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="X3">
-        <v>0.06560391743115769</v>
+        <v>0.05121557552747601</v>
       </c>
       <c r="Y3">
-        <v>-0.1051589236116274</v>
+        <v>0.3224107980988976</v>
       </c>
       <c r="Z3">
-        <v>0.04860088365243004</v>
+        <v>0.01652308995904534</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06560391743115769</v>
+        <v>0.05121557552747601</v>
       </c>
       <c r="AC3">
-        <v>-0.06560391743115769</v>
+        <v>-0.05121557552747601</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -794,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.081</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -803,16 +806,16 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.07174490699734279</v>
+        <v>-0.01470283702629944</v>
       </c>
       <c r="AK3">
-        <v>-0.1037131882202305</v>
+        <v>-0.01107817132157903</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.005</v>
+        <v>-0.001</v>
       </c>
       <c r="AQ3">
         <v>-0</v>
@@ -826,7 +829,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prime Holding For Financial Investments S.A.E. (CASE:PRMH)</t>
+          <t>Alexandria National Company For Financial Investment SAE (CASE:ANFI)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -834,12 +837,6 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.0207</v>
-      </c>
-      <c r="E4">
-        <v>-0.26</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -853,61 +850,58 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.467</v>
+        <v>0.358</v>
       </c>
       <c r="L4">
-        <v>0.09936170212765957</v>
+        <v>1.162337662337662</v>
       </c>
       <c r="M4">
-        <v>1.6</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.1045751633986928</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>3.426124197002141</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>1.6</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.1045751633986928</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>3.426124197002141</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>4.87</v>
+        <v>0.014</v>
       </c>
       <c r="V4">
-        <v>0.3183006535947712</v>
+        <v>0.005668016194331983</v>
       </c>
       <c r="W4">
-        <v>0.01898373983739837</v>
+        <v>0.4153132250580046</v>
       </c>
       <c r="X4">
-        <v>0.06560391743115769</v>
+        <v>0.05121557552747601</v>
       </c>
       <c r="Y4">
-        <v>-0.04662017759375932</v>
+        <v>0.3640976495305286</v>
       </c>
       <c r="Z4">
-        <v>0.6555090655509064</v>
+        <v>0.3943661971830986</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.06560391743115769</v>
+        <v>0.05121557552747601</v>
       </c>
       <c r="AC4">
-        <v>-0.06560391743115769</v>
+        <v>-0.05121557552747601</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -919,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-4.87</v>
+        <v>-0.014</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -928,16 +922,19 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.4669223394055609</v>
+        <v>-0.005700325732899022</v>
       </c>
       <c r="AK4">
-        <v>-0.2304779933743493</v>
+        <v>-0.01289134438305709</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-0.001</v>
+      </c>
+      <c r="AQ4">
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -948,7 +945,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grand Capital for Financial Investments (CASE:GRCA)</t>
+          <t>El Orouba Securities Brokerage (CASE:EOSB)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -957,10 +954,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0458</v>
-      </c>
-      <c r="E5">
-        <v>-0.139</v>
+        <v>0.004030000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -975,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.225</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="L5">
-        <v>0.3308823529411765</v>
+        <v>-0.07964601769911503</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -987,7 +981,7 @@
         <v>-0</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -996,70 +990,67 @@
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.611</v>
+        <v>0.22</v>
       </c>
       <c r="V5">
-        <v>0.3133333333333334</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="W5">
-        <v>0.07525083612040133</v>
+        <v>-0.01246537396121884</v>
       </c>
       <c r="X5">
-        <v>0.06722686469721151</v>
+        <v>0.05121557552747601</v>
       </c>
       <c r="Y5">
-        <v>0.008023971423189821</v>
+        <v>-0.06368094948869485</v>
       </c>
       <c r="Z5">
-        <v>0.3937463810075275</v>
+        <v>0.5022222222222222</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.06713541112188198</v>
+        <v>0.05121557552747601</v>
       </c>
       <c r="AC5">
-        <v>-0.06713541112188198</v>
+        <v>-0.05121557552747601</v>
       </c>
       <c r="AD5">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>-0.523</v>
+        <v>-0.22</v>
       </c>
       <c r="AH5">
-        <v>0.04317958783120707</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.02432283029297955</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.3665031534688157</v>
+        <v>-0.2444444444444444</v>
       </c>
       <c r="AK5">
-        <v>-0.1739275024941803</v>
+        <v>-0.4263565891472868</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>-0.113</v>
-      </c>
-      <c r="AQ5">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1070,7 +1061,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Egyptian Arabian Company (Themar) for securities Brokerage EAC (CASE:EASB)</t>
+          <t>Grand Capital for Financial Investments (CASE:GRCA)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1079,10 +1070,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.00936</v>
-      </c>
-      <c r="E6">
-        <v>-0.0728</v>
+        <v>0.15</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1097,91 +1085,91 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.354</v>
+        <v>-0.609</v>
       </c>
       <c r="L6">
-        <v>0.2475524475524475</v>
+        <v>-0.525</v>
       </c>
       <c r="M6">
-        <v>0.396</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.1885714285714286</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>1.11864406779661</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.396</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.1885714285714286</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>1.11864406779661</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>2.78</v>
+        <v>0.774</v>
       </c>
       <c r="V6">
-        <v>1.323809523809524</v>
+        <v>0.1954545454545455</v>
       </c>
       <c r="W6">
-        <v>0.09291338582677165</v>
+        <v>-0.1730113636363636</v>
       </c>
       <c r="X6">
-        <v>0.07223139120998624</v>
+        <v>0.05180620409172682</v>
       </c>
       <c r="Y6">
-        <v>0.02068199461678541</v>
+        <v>-0.2248175677280904</v>
       </c>
       <c r="Z6">
-        <v>0.7659346545259774</v>
+        <v>0.4174163368118028</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.07066479464190997</v>
+        <v>0.05181984546702754</v>
       </c>
       <c r="AC6">
-        <v>-0.07066479464190997</v>
+        <v>-0.05181984546702754</v>
       </c>
       <c r="AD6">
-        <v>0.387</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.387</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AG6">
-        <v>-2.393</v>
+        <v>-0.7020000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.1556091676718938</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="AI6">
-        <v>0.08529865549922855</v>
+        <v>0.02321083172147002</v>
       </c>
       <c r="AJ6">
-        <v>8.167235494880554</v>
+        <v>-0.2154696132596685</v>
       </c>
       <c r="AK6">
-        <v>-1.361980648833238</v>
+        <v>-0.3015463917525774</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>-0.089</v>
+      </c>
+      <c r="AQ6">
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -1192,7 +1180,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EFG-Hermes Holding S.A.E (CASE:HRHO)</t>
+          <t>Osool ESB Securities Brokerage (CASE:EBSC)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1189,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.149</v>
+        <v>0.09449999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.0795</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1216,91 +1207,91 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>82.59999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="L7">
-        <v>0.255806751316197</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="M7">
-        <v>35.4</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.04355850867478774</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>0.4285714285714286</v>
+        <v>-0</v>
       </c>
       <c r="P7">
-        <v>35.4</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.04355850867478774</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.4285714285714286</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>463.9</v>
+        <v>1.55</v>
       </c>
       <c r="V7">
-        <v>0.5708133382551986</v>
+        <v>0.08201058201058202</v>
       </c>
       <c r="W7">
-        <v>0.1041745491234708</v>
+        <v>0.06</v>
       </c>
       <c r="X7">
-        <v>0.09863309188326481</v>
+        <v>0.05201479910052967</v>
       </c>
       <c r="Y7">
-        <v>0.00554145724020598</v>
+        <v>0.007985200899470329</v>
       </c>
       <c r="Z7">
-        <v>0.4212105400469606</v>
+        <v>0.7399103139013454</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.07894777504249809</v>
+        <v>0.05222874525254297</v>
       </c>
       <c r="AC7">
-        <v>-0.07894777504249809</v>
+        <v>-0.05222874525254297</v>
       </c>
       <c r="AD7">
-        <v>746.4</v>
+        <v>0.465</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>746.4</v>
+        <v>0.465</v>
       </c>
       <c r="AG7">
-        <v>282.5</v>
+        <v>-1.085</v>
       </c>
       <c r="AH7">
-        <v>0.4787377333076775</v>
+        <v>0.02401239349341596</v>
       </c>
       <c r="AI7">
-        <v>0.4570168993387216</v>
+        <v>0.1215686274509804</v>
       </c>
       <c r="AJ7">
-        <v>0.2579437545653762</v>
+        <v>-0.06090373280943026</v>
       </c>
       <c r="AK7">
-        <v>0.2415975369879415</v>
+        <v>-0.4769230769230769</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>-0.037</v>
+      </c>
+      <c r="AQ7">
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -1311,7 +1302,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pioneers Holding Co. (CASE:PIOH)</t>
+          <t>Prime Holding for financial investments (S.A.E) (CASE:PRMH)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1320,10 +1311,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.3720000000000001</v>
-      </c>
-      <c r="E8">
-        <v>0.353</v>
+        <v>0.127</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1338,28 +1326,28 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>78.8</v>
+        <v>-2.1</v>
       </c>
       <c r="L8">
-        <v>0.1230865354576695</v>
+        <v>-0.5370843989769821</v>
       </c>
       <c r="M8">
-        <v>8.609999999999999</v>
+        <v>0.106</v>
       </c>
       <c r="N8">
-        <v>0.0281648675171737</v>
+        <v>0.005888888888888889</v>
       </c>
       <c r="O8">
-        <v>0.1092639593908629</v>
+        <v>-0.05047619047619047</v>
       </c>
       <c r="P8">
-        <v>8.609999999999999</v>
+        <v>0.106</v>
       </c>
       <c r="Q8">
-        <v>0.0281648675171737</v>
+        <v>0.005888888888888889</v>
       </c>
       <c r="R8">
-        <v>0.1092639593908629</v>
+        <v>-0.05047619047619047</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1368,66 +1356,60 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>50.6</v>
+        <v>11.1</v>
       </c>
       <c r="V8">
-        <v>0.1655217533529604</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="W8">
-        <v>0.2345936290562668</v>
+        <v>-0.08108108108108109</v>
       </c>
       <c r="X8">
-        <v>0.09323792841757797</v>
+        <v>0.06108727572496782</v>
       </c>
       <c r="Y8">
-        <v>0.1413557006386888</v>
+        <v>-0.1421683568060489</v>
       </c>
       <c r="Z8">
-        <v>1.333194502290712</v>
+        <v>0.4750911300121509</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.07973572112748041</v>
+        <v>0.06029435771253885</v>
       </c>
       <c r="AC8">
-        <v>-0.07973572112748041</v>
+        <v>-0.06029435771253885</v>
       </c>
       <c r="AD8">
-        <v>234.9</v>
+        <v>5.47</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>234.9</v>
+        <v>5.47</v>
       </c>
       <c r="AG8">
-        <v>184.3</v>
+        <v>-5.63</v>
       </c>
       <c r="AH8">
-        <v>0.4345172031076581</v>
+        <v>0.2330634853003835</v>
       </c>
       <c r="AI8">
-        <v>0.2921641791044776</v>
+        <v>0.1819088792816761</v>
       </c>
       <c r="AJ8">
-        <v>0.3761224489795919</v>
+        <v>-0.4551333872271625</v>
       </c>
       <c r="AK8">
-        <v>0.2446243695248208</v>
+        <v>-0.2967843964153927</v>
       </c>
       <c r="AL8">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>11.9</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
         <v>0</v>
       </c>
     </row>
@@ -1448,10 +1430,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.583</v>
+        <v>0.308</v>
       </c>
       <c r="G9">
-        <v>0.001501416430594901</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1463,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>-7.29</v>
+        <v>-4.07</v>
       </c>
       <c r="L9">
-        <v>-0.2065155807365439</v>
+        <v>-0.2928057553956835</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1490,55 +1472,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>70</v>
+        <v>21.4</v>
       </c>
       <c r="V9">
-        <v>3.004291845493562</v>
+        <v>0.2951724137931034</v>
       </c>
       <c r="W9">
-        <v>-0.3225663716814159</v>
+        <v>-0.4557670772676372</v>
       </c>
       <c r="X9">
-        <v>0.1139147769627589</v>
+        <v>0.06394056611174838</v>
       </c>
       <c r="Y9">
-        <v>-0.4364811486441748</v>
+        <v>-0.5197076433793856</v>
       </c>
       <c r="Z9">
-        <v>6.086206896551719</v>
+        <v>-0.367530407191962</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>0.08424805571684885</v>
+        <v>0.06217986603156675</v>
       </c>
       <c r="AC9">
-        <v>-0.08424805571684885</v>
+        <v>-0.06217986603156675</v>
       </c>
       <c r="AD9">
-        <v>31.3</v>
+        <v>28.4</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>31.3</v>
+        <v>28.4</v>
       </c>
       <c r="AG9">
-        <v>-38.7</v>
+        <v>7</v>
       </c>
       <c r="AH9">
-        <v>0.5732600732600732</v>
+        <v>0.2814667988107036</v>
       </c>
       <c r="AI9">
-        <v>0.7470167064439142</v>
+        <v>0.4219910846953938</v>
       </c>
       <c r="AJ9">
-        <v>2.512987012987013</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="AK9">
-        <v>1.377224199288256</v>
+        <v>0.1525054466230937</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1555,7 +1537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>El Kahera El Watania Investment (CASE:KWIN)</t>
+          <t>Pioneers Holding Company For Financial Investments (CASE:PIOH)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1564,7 +1546,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.269</v>
+        <v>0.0256</v>
+      </c>
+      <c r="E10">
+        <v>0.145</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1579,91 +1564,219 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>-0.948</v>
+        <v>54.9</v>
       </c>
       <c r="L10">
-        <v>-2.393939393939394</v>
+        <v>0.17467387846007</v>
       </c>
       <c r="M10">
-        <v>-0</v>
+        <v>20.03</v>
       </c>
       <c r="N10">
-        <v>-0</v>
+        <v>0.07435040831477358</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.3648451730418944</v>
       </c>
       <c r="P10">
-        <v>-0</v>
+        <v>5.03</v>
       </c>
       <c r="Q10">
-        <v>-0</v>
+        <v>0.01867112100965108</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.09162112932604737</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="T10">
+        <v>0.7488766849725411</v>
       </c>
       <c r="U10">
-        <v>0.479</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="V10">
-        <v>0.1863813229571984</v>
+        <v>0.2390497401633259</v>
       </c>
       <c r="W10">
-        <v>0.3761904761904762</v>
+        <v>0.1315915627996165</v>
       </c>
       <c r="X10">
-        <v>0.2223299887550677</v>
+        <v>0.08792048800960989</v>
       </c>
       <c r="Y10">
-        <v>0.1538604874354085</v>
+        <v>0.04367107479000659</v>
       </c>
       <c r="Z10">
-        <v>0.05579036348267118</v>
+        <v>0.6568443051201671</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.08827476841402285</v>
+        <v>0.06916717381533105</v>
       </c>
       <c r="AC10">
-        <v>-0.08827476841402285</v>
+        <v>-0.06916717381533105</v>
       </c>
       <c r="AD10">
-        <v>11.2</v>
+        <v>304.4</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>11.2</v>
+        <v>304.4</v>
       </c>
       <c r="AG10">
-        <v>10.721</v>
+        <v>240</v>
       </c>
       <c r="AH10">
-        <v>0.8133623819898329</v>
+        <v>0.5304984315092367</v>
       </c>
       <c r="AI10">
-        <v>1.827079934747145</v>
+        <v>0.33242328273452</v>
       </c>
       <c r="AJ10">
-        <v>0.8066360695207283</v>
+        <v>0.4711425206124852</v>
       </c>
       <c r="AK10">
-        <v>1.897186338701115</v>
+        <v>0.281921766709738</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>-0.012</v>
+        <v>-7.95</v>
       </c>
       <c r="AQ10">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EFG-Hermes Holding S.A.E (CASE:HRHO)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Brokerage &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.317</v>
+      </c>
+      <c r="E11">
+        <v>0.183</v>
+      </c>
+      <c r="F11">
+        <v>0.06</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.2279902853673345</v>
+      </c>
+      <c r="M11">
+        <v>7.04</v>
+      </c>
+      <c r="N11">
+        <v>0.009854423292273236</v>
+      </c>
+      <c r="O11">
+        <v>0.0937416777629827</v>
+      </c>
+      <c r="P11">
+        <v>7.04</v>
+      </c>
+      <c r="Q11">
+        <v>0.009854423292273236</v>
+      </c>
+      <c r="R11">
+        <v>0.0937416777629827</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>549.5</v>
+      </c>
+      <c r="V11">
+        <v>0.7691769316909295</v>
+      </c>
+      <c r="W11">
+        <v>0.08695148778511055</v>
+      </c>
+      <c r="X11">
+        <v>0.0821177514437223</v>
+      </c>
+      <c r="Y11">
+        <v>0.004833736341388256</v>
+      </c>
+      <c r="Z11">
+        <v>0.3018971679956008</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0.07020640598047197</v>
+      </c>
+      <c r="AC11">
+        <v>-0.07020640598047197</v>
+      </c>
+      <c r="AD11">
+        <v>679.6</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>679.6</v>
+      </c>
+      <c r="AG11">
+        <v>130.1</v>
+      </c>
+      <c r="AH11">
+        <v>0.4875179340028695</v>
+      </c>
+      <c r="AI11">
+        <v>0.4406977498216718</v>
+      </c>
+      <c r="AJ11">
+        <v>0.1540556542332742</v>
+      </c>
+      <c r="AK11">
+        <v>0.1310699173886762</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
